--- a/PHP-2/Олимпиадные_задачи/test.xlsx
+++ b/PHP-2/Олимпиадные_задачи/test.xlsx
@@ -535,7 +535,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">.ui-product-elements__product-equal{width:29px;height:29px;padding-top:4px;padding-left:3px;color:#9FA1A1;font-size:1.2em;border:2px solid #9FA1A1;border-radius:25px;right:0}.ui-product-elements__product-equal a.compare-click{display:block;margin-top:-19px;margin-left:-3px;position:absolute}.ui-product-elements__product-equal:hover{color:#fff;background-color:#006564;border:2px solid #006564;cursor:pointer}.tovar-detail__row-1 .ui-product-elements__product-equal.active{color:inherit;background:none;border:none}.tovar-detail__row-1 .ui-product-elements__product-equal.active a{text-decoration:none}.tovar-detail__row-1 .ui-product-elements__product-equal.active a i.fa{color:#fff;background-color:#006564;border:2px solid #006564}.tovar-detail__row-1 .ui-product-elements__product-equal:hover{color:inherit;background:none;border:none}.tovar-detail__row-1 .ui-product-elements__product-equal a i.fa{margin-right:15px;border:2px solid #9FA1A1;color:#9FA1A1;border-radius:25px;width:29px;height:29px;font-size:1.1em;padding:5px 4px 4px 3.5px}.tovar-detail__row-1 .ui-product-elements__product-equal a i.fa:hover{color:#fff;background-color:#006564;border:2px solid #006564;cursor:pointer}.tovar-detail__row-1 .ui-product-elements .ui-product-elements__product-equal{border:none;padding-left:0;padding-top:0}</t>
+    <t xml:space="preserve">.ui-product-elements__product-equal{width:29px;height:29px;padding-top:4px;padding-left:3px;color:#9FA1A1;font-size:1.2em;border:2px solid #9FA1A1;border-radius:25px;right:0}.ui-product-elements__product-equal a.compare-click{display:block;margin-top:-19px;margin-left:-3px;position:absolute}.ui-product-elements__product-equal:hover{color:#fff;background-color:#006564;border:2px solid #006564;cursor:pointer}.tovar-detail__row-1 .ui-product-elements__product-equal.active{color:inherit;background:none;border:none}.tovar-detail__row-1 .ui-product-elements__product-equal.active a{text-decoration:none}.tovar-detail__row-1 .ui-product-elements__product-equal.active a i.fa{color:#fff;background-color:#006564;border:2px solid #006564}.tovar-detail__row-1 .ui-product-elements__product-equal:hover{color:inherit;background:none;border:none}.tovar-detail__row-1 .ui-product-elements__product-equal a i.fa{margin-right:15px;padding:5px 4px 4px 3.5px;border:2px solid #9FA1A1;color:#9FA1A1;border-radius:25px;width:29px;height:29px;font-size:1.1em}.tovar-detail__row-1 .ui-product-elements__product-equal a i.fa:hover{color:#fff;background-color:#006564;border:2px solid #006564;cursor:pointer}.tovar-detail__row-1 .ui-product-elements .ui-product-elements__product-equal{border:none;padding-left:0;padding-top:0}</t>
   </si>
   <si>
     <t xml:space="preserve">/*комментарий */
@@ -596,7 +596,7 @@
   font-weight: 600; }</t>
   </si>
   <si>
-    <t xml:space="preserve">.ui-tabs{padding:0}.mobile-nav-select.input-container{margin-bottom:20px}.mobile-nav-select.input-container.bordered{background-color:#f53;border-top:1px solid #eee;border-bottom:1px solid #bee;padding:20px 0}.mobile-nav-select.input-container.wide{margin-left:-10px;margin-right:-10px;padding-top:10px;padding-bottom:10px}.mobile-nav-select.input-container .custom-select .jq-selectbox__select{background-color:#fff;color:#006564;font-weight:600}</t>
+    <t xml:space="preserve">.ui-tabs{padding:0}.mobile-nav-select.input-container{margin-bottom:20px}.mobile-nav-select.input-container.bordered{background-color:#f53;padding:20px 0;border-top:1px solid #eee;border-bottom:1px solid #bee}.mobile-nav-select.input-container.wide{margin-left:-10px;margin-right:-10px;padding-top:10px;padding-bottom:10px}.mobile-nav-select.input-container .custom-select .jq-selectbox__select{background-color:#fff;color:#006564;font-weight:600}</t>
   </si>
   <si>
     <t xml:space="preserve">.ui-tabs {
@@ -626,7 +626,7 @@
   }</t>
   </si>
   <si>
-    <t xml:space="preserve">.ui-tabs{padding:0}.mobile-nav-select.input-container{margin-bottom:20px}.mobile-nav-select.input-container.bordered{background-color:#f53;border-top:1px solid peru;border-bottom:1px solid #bbe1ee;padding:20px 0}.mobile-nav-select.input-container.wide{margin:10px -10px}.mobile-nav-select.input-container .custom-select .jq-selectbox__select{background-color:plum;color:tan;font-weight:600}</t>
+    <t xml:space="preserve">.ui-tabs{padding:0}.mobile-nav-select.input-container{margin-bottom:20px}.mobile-nav-select.input-container.bordered{background-color:#f53;padding:20px 0;border-top:1px solid peru;border-bottom:1px solid #bbe1ee}.mobile-nav-select.input-container.wide{margin:10px -10px}.mobile-nav-select.input-container .custom-select .jq-selectbox__select{background-color:plum;color:tan;font-weight:600}</t>
   </si>
   <si>
     <t xml:space="preserve">.mobile-nav-select.input-container.wide {
@@ -754,20 +754,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,19 +969,19 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="62.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -985,10 +989,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -996,10 +1000,10 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1007,10 +1011,10 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1018,286 +1022,286 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
     </row>
